--- a/02_Historia_Usuario grupo 22 Subgrupo 06.xlsx
+++ b/02_Historia_Usuario grupo 22 Subgrupo 06.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MINTIC\MATERIAL DE APOYO SCRUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de usuario SPRINT 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Historia de usuario SPRINT 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Historia de usuario SPRINT 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="41">
   <si>
     <t>HISTORIAS DE USUARIO</t>
   </si>
@@ -130,6 +131,30 @@
   </si>
   <si>
     <t>Descripción: Yo como Gerente de la organización (El Condor S.A.S) quiero que el proyecto presente un diagrama UML el cual describa con presicion los Objetos individuales (elementos básicos del proyecto) Clases del proyecto, Relaciones entre objetos (jerarquía y comportamiento/comunicación entre objetos del proyecto) y su funcionalidad.</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>Descripción: Yo como Gerente de la organización (El Condor S.A.S) quiero que el proyecto contenga una base de datos relacional, independientemente del gestor de base de datos que usen quiero que esta base de datos se pueda conectar de manera sencilla y eficiente con la vista y el controlador del proyecto</t>
+  </si>
+  <si>
+    <t>Observaciones: como Sprint me gustaria que la base de datos sea funcional, no es obligatorio que tenga las conexiones con el controlador pero si que responda a las necesidades que les presente anteriomente.</t>
+  </si>
+  <si>
+    <t>Descripción: Yo como Gerente de la organización (El Condor S.A.S) quiero que el tercer SPRINT  contenga las bases de las conexiones del frontend (vista) el backend (controlador) y la base de datos (modelo).</t>
+  </si>
+  <si>
+    <t>Observaciones: no es necesario que las conexiones esten terminadas debido a que lo importante es conocer el como se comportaria la aplicación y si toca hacerle alguna modificacion tanto en el modelo o en la vista o el controlador de la misma por lo que con las conexiones basicas podemos concluir lo anterior.</t>
+  </si>
+  <si>
+    <t>Creacion de base de datos (modelo)</t>
+  </si>
+  <si>
+    <t>conexiones modelo-vista-controlador</t>
   </si>
 </sst>
 </file>
@@ -407,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,18 +472,51 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,62 +525,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="12" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -536,13 +543,37 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="12" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +584,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F59"/>
+    <sheetView topLeftCell="A71" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -786,63 +823,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="7"/>
@@ -851,200 +888,200 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="31">
         <v>44791</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="46">
         <v>6.5</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="46">
         <v>8</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="7"/>
@@ -1053,200 +1090,200 @@
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="31">
         <v>44791</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="18">
         <v>2</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="18">
         <v>3</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="38"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="41"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="56"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="19"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="16"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="7"/>
@@ -1255,200 +1292,200 @@
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="31">
         <v>44791</v>
       </c>
-      <c r="F47" s="17"/>
+      <c r="F47" s="20"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="19"/>
       <c r="D48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="18">
         <v>2</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="27"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="18">
         <v>3</v>
       </c>
-      <c r="F49" s="17"/>
+      <c r="F49" s="20"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="54" t="s">
+      <c r="A55" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="26"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="37"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="19"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="20"/>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="20"/>
+      <c r="A65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="16"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="7"/>
@@ -1457,133 +1494,133 @@
       <c r="A67" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="27"/>
+      <c r="C67" s="19"/>
       <c r="D67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="45">
+      <c r="E67" s="31">
         <v>44791</v>
       </c>
-      <c r="F67" s="17"/>
+      <c r="F67" s="20"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="27"/>
+      <c r="C68" s="19"/>
       <c r="D68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="18">
         <v>2</v>
       </c>
-      <c r="F68" s="17"/>
+      <c r="F68" s="20"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="27"/>
+      <c r="C69" s="19"/>
       <c r="D69" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="18">
         <v>3</v>
       </c>
-      <c r="F69" s="17"/>
+      <c r="F69" s="20"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="31"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="29"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="31"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="29"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="31"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="29"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="31"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="32"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="34"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
     </row>
     <row r="80" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
@@ -1708,43 +1745,12 @@
     <row r="100" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="A70:F74"/>
-    <mergeCell ref="A75:F79"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A61:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="A50:F54"/>
-    <mergeCell ref="A55:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="A41:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A21:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
@@ -1761,12 +1767,43 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A21:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="A61:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="A50:F54"/>
+    <mergeCell ref="A55:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="A70:F74"/>
+    <mergeCell ref="A75:F79"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="E68:F68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1777,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1788,71 +1825,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="7"/>
@@ -1861,163 +1898,605 @@
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="31">
         <v>44791</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="18">
         <v>2</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="18">
         <v>3</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="A20:F23"/>
     <mergeCell ref="A11:F14"/>
     <mergeCell ref="A15:F19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="31">
+        <v>44791</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="31">
+        <v>44791</v>
+      </c>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="18">
+        <v>2</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="18">
+        <v>3</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:F34"/>
+    <mergeCell ref="A35:F39"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A11:F14"/>
+    <mergeCell ref="A15:F19"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
@@ -2033,5 +2512,6 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>